--- a/Tables/ChangedProblem_output.xlsx
+++ b/Tables/ChangedProblem_output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,11 +397,6 @@
           <t>E</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -413,18 +408,15 @@
         <v>6000</v>
       </c>
       <c r="C2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>6000</v>
       </c>
       <c r="E2" t="n">
-        <v>475</v>
+        <v>5000</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -435,7 +427,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -444,12 +436,9 @@
         <v>6000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,22 +449,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F4" t="n">
         <v>2000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>5000</v>
@@ -497,10 +483,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+        <v>2375</v>
       </c>
     </row>
   </sheetData>
